--- a/biology/Médecine/Sonde_d'alimentation/Sonde_d'alimentation.xlsx
+++ b/biology/Médecine/Sonde_d'alimentation/Sonde_d'alimentation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sonde_d%27alimentation</t>
+          <t>Sonde_d'alimentation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une sonde d'alimentation est une sonde, notamment une sonde naso-gastrique, en vue de nourrir une personne sans passer par les voies buccales. Elle est notamment utilisée pour les prématurés, les personnes ne pouvant déglutir, etc.
  Portail de la médecine   Alimentation et gastronomie                    </t>
